--- a/Prueba 1.xlsx
+++ b/Prueba 1.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\TFG\app-gestion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13BCA83-E404-4501-8248-7642ED357C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="30612" yWindow="-5364" windowWidth="17496" windowHeight="30336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TFG" sheetId="1" r:id="rId4"/>
+    <sheet name="TFG" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -22,9 +31,6 @@
     <t>ref</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>unidades</t>
   </si>
   <si>
@@ -77,31 +83,37 @@
   </si>
   <si>
     <t>Pintalabios 9</t>
+  </si>
+  <si>
+    <t>descripcion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -112,57 +124,52 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -352,30 +359,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.75"/>
-    <col customWidth="1" min="2" max="2" width="10.25"/>
-    <col customWidth="1" min="3" max="3" width="26.5"/>
-    <col customWidth="1" min="4" max="4" width="20.88"/>
-    <col customWidth="1" min="5" max="5" width="7.75"/>
-    <col customWidth="1" min="6" max="6" width="13.0"/>
-    <col customWidth="1" min="7" max="7" width="9.13"/>
-    <col customWidth="1" min="8" max="9" width="5.5"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="8" max="9" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -386,350 +398,350 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1122334455</v>
+      </c>
+      <c r="C2" s="3">
+        <v>8354456</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>1.122334455E9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>8354456.0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1">
+        <v>800</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
-        <v>800.0</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9876543210</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7545678</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3">
-        <v>9.87654321E9</v>
-      </c>
-      <c r="C3" s="2">
-        <v>7545678.0</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
-        <v>1500.0</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5678901234</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1234567</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
-        <v>5.678901234E9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1234567.0</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1">
-        <v>2000.0</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3">
+        <v>7654321</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4">
-        <v>7654321.0</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="4">
+        <v>44693</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1">
+        <v>9876543</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1">
-        <v>1200.0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>44693.0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>9876543.0</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1">
+        <v>2468135</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
-        <v>2468135.0</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1">
+        <v>1357924</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1">
-        <v>1500.0</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2">
-        <v>1357924.0</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="1">
+        <v>900</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>9876543210</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1122334</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1">
-        <v>900.0</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>9.87654321E9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1122334.0</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="1">
+        <v>800</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5678901234</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4433221</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="1">
-        <v>800.0</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5.678901234E9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4433221.0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E10" s="1">
-        <v>1200.0</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>1200</v>
+      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Prueba 1.xlsx
+++ b/Prueba 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\TFG\app-gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13BCA83-E404-4501-8248-7642ED357C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D871D75-D474-4368-929A-2A28B07C4EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-5364" windowWidth="17496" windowHeight="30336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20736" yWindow="3852" windowWidth="12960" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TFG" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B10" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -420,9 +420,7 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
-        <v>1122334455</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="3">
         <v>8354456</v>
       </c>
@@ -447,9 +445,7 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>9876543210</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="1">
         <v>7545678</v>
       </c>
@@ -474,9 +470,7 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
-        <v>5678901234</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1">
         <v>1234567</v>
       </c>
@@ -603,9 +597,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>9876543210</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <v>1122334</v>
       </c>
@@ -630,9 +622,7 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>5678901234</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="1">
         <v>4433221</v>
       </c>

--- a/Prueba 1.xlsx
+++ b/Prueba 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\TFG\app-gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D871D75-D474-4368-929A-2A28B07C4EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4195E7B9-253B-4E3D-9FBE-C2B2B2EF7B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20736" yWindow="3852" windowWidth="12960" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-5028" windowWidth="17496" windowHeight="30336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TFG" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
-    <t>origen</t>
-  </si>
-  <si>
     <t>dcs</t>
   </si>
   <si>
-    <t>ref</t>
-  </si>
-  <si>
     <t>unidades</t>
   </si>
   <si>
@@ -86,6 +80,12 @@
   </si>
   <si>
     <t>descripcion</t>
+  </si>
+  <si>
+    <t>ORIGEN</t>
+  </si>
+  <si>
+    <t>REF</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B2:B10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -389,50 +389,50 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3">
         <v>8354456</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>800</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1">
         <v>4</v>
@@ -443,21 +443,21 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1">
         <v>7545678</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>1500</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
         <v>3</v>
@@ -468,21 +468,21 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1">
         <v>1234567</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>2000</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1">
         <v>5</v>
@@ -493,14 +493,14 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
         <v>7654321</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>1200</v>
@@ -509,7 +509,7 @@
         <v>44693</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -520,21 +520,21 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
         <v>9876543</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
         <v>1000</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
@@ -545,21 +545,21 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
         <v>2468135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>1500</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1">
         <v>4</v>
@@ -570,21 +570,21 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
         <v>1357924</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1">
         <v>900</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
@@ -595,21 +595,21 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
         <v>1122334</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
         <v>800</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
@@ -620,21 +620,21 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
         <v>4433221</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1">
         <v>1200</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" s="1">
         <v>3</v>

--- a/Prueba 1.xlsx
+++ b/Prueba 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\TFG\app-gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4195E7B9-253B-4E3D-9FBE-C2B2B2EF7B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF45774E-DAA7-4837-9FFB-5F49E0D5BC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-5028" windowWidth="17496" windowHeight="30336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TFG" sheetId="1" r:id="rId1"/>
@@ -372,22 +372,22 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="9" width="5.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="9" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -441,7 +441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -466,7 +466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -491,7 +491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -518,7 +518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -543,7 +543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -568,7 +568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -593,7 +593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -618,7 +618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -643,7 +643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -654,7 +654,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -665,7 +665,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -676,7 +676,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
@@ -687,7 +687,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
@@ -698,7 +698,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
@@ -709,7 +709,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
@@ -720,7 +720,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>

--- a/Prueba 1.xlsx
+++ b/Prueba 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\TFG\app-gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF45774E-DAA7-4837-9FFB-5F49E0D5BC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E39C669-7ECE-4E83-A8F7-7410028D214B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TFG" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>dcs</t>
   </si>
@@ -86,6 +86,21 @@
   </si>
   <si>
     <t>REF</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>OPCC</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>TRUCK</t>
+  </si>
+  <si>
+    <t>INVENT</t>
   </si>
 </sst>
 </file>
@@ -369,25 +384,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="9" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="8" max="9" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -415,8 +430,11 @@
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -440,8 +458,11 @@
       <c r="I2" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -465,8 +486,11 @@
       <c r="I3" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -490,8 +514,11 @@
       <c r="I4" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -517,8 +544,11 @@
       <c r="I5" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -542,8 +572,11 @@
       <c r="I6" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -567,8 +600,11 @@
       <c r="I7" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -592,8 +628,11 @@
       <c r="I8" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -617,8 +656,11 @@
       <c r="I9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -642,8 +684,11 @@
       <c r="I10" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -654,7 +699,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -665,7 +710,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -676,7 +721,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
@@ -687,7 +732,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
@@ -698,7 +743,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
@@ -709,7 +754,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
@@ -720,7 +765,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
